--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">roll_no</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mohak Borole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon Musk</t>
   </si>
 </sst>
 </file>
@@ -115,13 +118,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -144,10 +151,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
@@ -209,8 +216,15 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>8888848291</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">roll_no</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mohak Borole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elon Musk</t>
   </si>
 </sst>
 </file>
@@ -216,15 +213,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>8888848291</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">roll_no</t>
   </si>
@@ -41,6 +41,33 @@
   </si>
   <si>
     <t xml:space="preserve">Mohak Borole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aatharva Awachare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namya Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naavnit Amrutraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prathamesh Bhokare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahil Bhavsar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shravani Bhosale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrushti Bonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddhant Battalwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash Bhise</t>
   </si>
 </sst>
 </file>
@@ -145,15 +172,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
   </cols>
   <sheetData>
@@ -213,15 +240,103 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>8983701618</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6269218018</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8669662244</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>9975583278</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9156994296</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>8446648460</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>8624964689</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>7720056303</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>9730383001</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">roll_no</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yash Bhise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Bodewar</t>
   </si>
 </sst>
 </file>
@@ -172,13 +175,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
@@ -280,7 +283,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>9975583278</v>
+        <v>9975583478</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,6 +339,17 @@
       </c>
       <c r="C14" s="0" t="n">
         <v>9730383001</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>7249743078</v>
       </c>
     </row>
   </sheetData>
